--- a/data/05 metanalayiss - reviewed.xlsx
+++ b/data/05 metanalayiss - reviewed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\Systematic_Review\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AFDBF0-1386-4620-942E-887102850979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DBC95C-0165-4538-A673-6C65465B1540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18520" yWindow="340" windowWidth="19880" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Within-subject (PrePost designs" sheetId="2" r:id="rId1"/>
@@ -342,12 +342,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -362,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -378,6 +384,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,7 +606,9 @@
   </sheetPr>
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1060,110 +1070,110 @@
         <v>-10.818763028843334</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="12.5">
-      <c r="A9" s="4">
+    <row r="9" spans="1:30" s="8" customFormat="1" ht="12.5">
+      <c r="A9" s="7">
         <v>42</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>26</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="7">
         <v>3.32</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="7">
         <v>1.33</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="7">
         <v>4.13</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="7">
         <v>1.97</v>
       </c>
-      <c r="K9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="4">
+      <c r="K9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="7">
         <v>-1</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="7">
         <f t="shared" si="1"/>
         <v>-0.81</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="7">
         <f t="shared" si="2"/>
         <v>1.7406033436713833</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="7">
         <f t="shared" si="3"/>
         <v>-0.45066043075444856</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="12.5">
-      <c r="A10" s="4">
+    <row r="10" spans="1:30" s="8" customFormat="1" ht="12.5">
+      <c r="A10" s="7">
         <v>42</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <v>29</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="7">
         <v>0.13</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="7">
         <v>0.09</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="7">
         <v>0.13</v>
       </c>
-      <c r="K10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="K10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="7">
         <v>1</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="7">
         <f t="shared" si="1"/>
         <v>-4.0000000000000008E-2</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="7">
         <f t="shared" si="2"/>
         <v>0.13527749258468685</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="7">
         <f t="shared" si="3"/>
         <v>-0.28739817637112364</v>
       </c>
@@ -2006,7 +2016,7 @@
   </sheetPr>
   <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
